--- a/CoinGain_Features.xlsx
+++ b/CoinGain_Features.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shash\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shash\OneDrive\Desktop\coingain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00804000-3716-4406-A1EA-8996038D086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837ACC30-625E-42DB-9A91-3F1416A32A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>Screen Name</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>07-07-2025</t>
-  </si>
-  <si>
-    <t>InProgress</t>
   </si>
   <si>
     <t>Admin</t>
@@ -538,7 +535,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" activeCellId="12" sqref="A18:XFD18 A19:XFD19 A20:XFD20 A22:XFD22 A21:XFD21 A23:XFD23 A25:XFD25 A27:XFD28 A30:XFD30 A31:XFD31 A29:XFD29 A26:XFD26 A24:XFD24"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,22 +579,22 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -606,49 +603,49 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -657,14 +654,14 @@
     </row>
     <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
@@ -672,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -681,22 +678,22 @@
     </row>
     <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -705,13 +702,13 @@
     </row>
     <row r="8" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -720,7 +717,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -729,13 +726,13 @@
     </row>
     <row r="9" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -753,13 +750,13 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -777,13 +774,13 @@
     </row>
     <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -801,13 +798,13 @@
     </row>
     <row r="12" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -825,13 +822,13 @@
     </row>
     <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -849,37 +846,37 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -897,13 +894,13 @@
     </row>
     <row r="16" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -921,13 +918,13 @@
     </row>
     <row r="17" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -939,7 +936,7 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J17" s="3"/>
     </row>
